--- a/src/data/out/people.xlsx
+++ b/src/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,59 +421,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>city</t>
+          <t>Привет мир!!! Привет</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SPB</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Moscow</t>
+          <t>Hellow world!!! Hello</t>
         </is>
       </c>
     </row>
